--- a/data/trans_orig/P75_P_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P75_P_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55ABBB9-0A0A-469D-9D24-602ED86BD43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0CB0AE-F6E1-49EF-A33E-96521FDDCC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{368696AF-9A7A-462C-9092-8AA54730CEF9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2340450-D794-42EA-94FA-0ADF681C39F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="436">
   <si>
     <t>Población según el nivel de estudios de su padre cuando tenían 12 años en 2012 (Tasa respuesta: 97,13%)</t>
   </si>
@@ -74,25 +74,25 @@
     <t>5,71%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado medio</t>
@@ -101,1228 +101,1246 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1737,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF94B9C-61D3-4F34-A1CF-1F4FE45762C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9964CF34-8522-432A-826E-C35F3A4A3021}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,16 +2116,16 @@
         <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>65</v>
@@ -2116,13 +2134,13 @@
         <v>64129</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>70</v>
@@ -2131,13 +2149,13 @@
         <v>71170</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M9" s="7">
         <v>135</v>
@@ -2146,19 +2164,19 @@
         <v>135299</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
@@ -2167,13 +2185,13 @@
         <v>5599</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2182,13 +2200,13 @@
         <v>9719</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2197,13 +2215,13 @@
         <v>15319</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2236,13 @@
         <v>439543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7">
         <v>412</v>
@@ -2233,13 +2251,13 @@
         <v>421246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>843</v>
@@ -2248,18 +2266,18 @@
         <v>860789</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2271,13 +2289,13 @@
         <v>26403</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -2286,13 +2304,13 @@
         <v>30338</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>48</v>
@@ -2301,13 +2319,13 @@
         <v>56742</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2340,13 @@
         <v>34974</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2337,7 +2355,7 @@
         <v>20700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>93</v>
@@ -2355,10 +2373,10 @@
         <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2391,13 @@
         <v>67535</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -2388,13 +2406,13 @@
         <v>48020</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -2403,13 +2421,13 @@
         <v>115555</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2442,13 @@
         <v>158872</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>104</v>
@@ -2439,13 +2457,13 @@
         <v>109515</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
@@ -2454,13 +2472,13 @@
         <v>268387</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2493,13 @@
         <v>168154</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>173</v>
@@ -2490,13 +2508,13 @@
         <v>185446</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>339</v>
@@ -2505,19 +2523,19 @@
         <v>353600</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="7">
         <v>181</v>
@@ -2526,13 +2544,13 @@
         <v>187091</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H17" s="7">
         <v>170</v>
@@ -2541,13 +2559,13 @@
         <v>181981</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>351</v>
@@ -2556,19 +2574,19 @@
         <v>369072</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="7">
         <v>24</v>
@@ -2577,13 +2595,13 @@
         <v>24133</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -2592,13 +2610,13 @@
         <v>20478</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M18" s="7">
         <v>44</v>
@@ -2607,13 +2625,13 @@
         <v>44611</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2646,13 @@
         <v>667162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>558</v>
@@ -2643,13 +2661,13 @@
         <v>596478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>1207</v>
@@ -2658,18 +2676,18 @@
         <v>1263640</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2681,13 +2699,13 @@
         <v>17983</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2696,13 +2714,13 @@
         <v>15747</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -2711,13 +2729,13 @@
         <v>33731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2780,13 @@
         <v>23240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,7 +2804,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>160</v>
@@ -2927,7 +2945,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="7">
         <v>249</v>
@@ -2978,7 +2996,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="7">
         <v>42</v>
@@ -3002,13 +3020,13 @@
         <v>49457</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M26" s="7">
         <v>88</v>
@@ -3017,13 +3035,13 @@
         <v>92183</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3056,13 @@
         <v>663686</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H27" s="7">
         <v>652</v>
@@ -3053,13 +3071,13 @@
         <v>692213</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M27" s="7">
         <v>1286</v>
@@ -3068,18 +3086,18 @@
         <v>1355899</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3091,13 +3109,13 @@
         <v>22317</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -3106,13 +3124,13 @@
         <v>17383</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -3121,13 +3139,13 @@
         <v>39700</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3160,13 @@
         <v>13089</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3157,13 +3175,13 @@
         <v>13319</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -3172,7 +3190,7 @@
         <v>26408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>217</v>
@@ -3196,10 +3214,10 @@
         <v>219</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -3208,13 +3226,13 @@
         <v>18620</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -3223,13 +3241,13 @@
         <v>33878</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3262,13 @@
         <v>64543</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H31" s="7">
         <v>41</v>
@@ -3259,13 +3277,13 @@
         <v>46937</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M31" s="7">
         <v>98</v>
@@ -3274,13 +3292,13 @@
         <v>111479</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3313,13 @@
         <v>157283</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H32" s="7">
         <v>124</v>
@@ -3310,13 +3328,13 @@
         <v>145371</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M32" s="7">
         <v>262</v>
@@ -3325,19 +3343,19 @@
         <v>302653</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="7">
         <v>265</v>
@@ -3346,13 +3364,13 @@
         <v>286330</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H33" s="7">
         <v>257</v>
@@ -3361,13 +3379,13 @@
         <v>287378</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M33" s="7">
         <v>522</v>
@@ -3376,19 +3394,19 @@
         <v>573708</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="7">
         <v>36</v>
@@ -3397,13 +3415,13 @@
         <v>38726</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H34" s="7">
         <v>63</v>
@@ -3412,13 +3430,13 @@
         <v>67791</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M34" s="7">
         <v>99</v>
@@ -3427,13 +3445,13 @@
         <v>106516</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3466,13 @@
         <v>597546</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" s="7">
         <v>522</v>
@@ -3463,13 +3481,13 @@
         <v>596797</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M35" s="7">
         <v>1055</v>
@@ -3478,18 +3496,18 @@
         <v>1194343</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3501,13 +3519,13 @@
         <v>12749</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>89</v>
+        <v>264</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3516,13 +3534,13 @@
         <v>6643</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -3531,13 +3549,13 @@
         <v>19392</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3570,13 @@
         <v>2043</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3567,13 +3585,13 @@
         <v>5335</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -3582,13 +3600,13 @@
         <v>7377</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3621,13 @@
         <v>5994</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -3618,13 +3636,13 @@
         <v>10306</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="M38" s="7">
         <v>15</v>
@@ -3633,13 +3651,13 @@
         <v>16300</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3672,13 @@
         <v>35003</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H39" s="7">
         <v>28</v>
@@ -3669,13 +3687,13 @@
         <v>31498</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M39" s="7">
         <v>58</v>
@@ -3684,10 +3702,10 @@
         <v>66501</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>293</v>
@@ -3705,13 +3723,13 @@
         <v>71004</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
@@ -3720,13 +3738,13 @@
         <v>74916</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M40" s="7">
         <v>132</v>
@@ -3735,19 +3753,19 @@
         <v>145920</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7">
         <v>212</v>
@@ -3756,13 +3774,13 @@
         <v>229003</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H41" s="7">
         <v>233</v>
@@ -3771,13 +3789,13 @@
         <v>252115</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M41" s="7">
         <v>445</v>
@@ -3786,19 +3804,19 @@
         <v>481118</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7">
         <v>52</v>
@@ -3807,13 +3825,13 @@
         <v>54224</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H42" s="7">
         <v>54</v>
@@ -3822,13 +3840,13 @@
         <v>58760</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M42" s="7">
         <v>106</v>
@@ -3837,13 +3855,13 @@
         <v>112984</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3876,13 @@
         <v>410020</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H43" s="7">
         <v>400</v>
@@ -3873,13 +3891,13 @@
         <v>439572</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M43" s="7">
         <v>777</v>
@@ -3888,18 +3906,18 @@
         <v>849592</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3911,13 +3929,13 @@
         <v>3047</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -3926,13 +3944,13 @@
         <v>6300</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -3941,10 +3959,10 @@
         <v>9347</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>330</v>
@@ -3983,7 +4001,7 @@
         <v>335</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="M45" s="7">
         <v>7</v>
@@ -3992,13 +4010,13 @@
         <v>8714</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4031,13 @@
         <v>10567</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -4028,13 +4046,13 @@
         <v>6330</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M46" s="7">
         <v>15</v>
@@ -4043,13 +4061,13 @@
         <v>16898</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>138</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4082,13 @@
         <v>23697</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>345</v>
+        <v>160</v>
       </c>
       <c r="H47" s="7">
         <v>27</v>
@@ -4079,13 +4097,13 @@
         <v>31443</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M47" s="7">
         <v>46</v>
@@ -4097,10 +4115,10 @@
         <v>95</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4133,13 @@
         <v>74631</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H48" s="7">
         <v>94</v>
@@ -4130,13 +4148,13 @@
         <v>102544</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="M48" s="7">
         <v>159</v>
@@ -4145,19 +4163,19 @@
         <v>177174</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="7">
         <v>235</v>
@@ -4166,13 +4184,13 @@
         <v>262067</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H49" s="7">
         <v>341</v>
@@ -4181,13 +4199,13 @@
         <v>361648</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M49" s="7">
         <v>576</v>
@@ -4196,19 +4214,19 @@
         <v>623715</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="7">
         <v>155</v>
@@ -4217,13 +4235,13 @@
         <v>162777</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H50" s="7">
         <v>186</v>
@@ -4232,13 +4250,13 @@
         <v>196773</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M50" s="7">
         <v>341</v>
@@ -4247,13 +4265,13 @@
         <v>359550</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4286,13 @@
         <v>541217</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H51" s="7">
         <v>663</v>
@@ -4283,13 +4301,13 @@
         <v>709320</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M51" s="7">
         <v>1152</v>
@@ -4298,13 +4316,13 @@
         <v>1250537</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4339,13 @@
         <v>107590</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>287</v>
+        <v>24</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H52" s="7">
         <v>86</v>
@@ -4336,13 +4354,13 @@
         <v>100435</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M52" s="7">
         <v>172</v>
@@ -4351,13 +4369,13 @@
         <v>208025</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4390,13 @@
         <v>106009</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H53" s="7">
         <v>70</v>
@@ -4387,13 +4405,13 @@
         <v>76125</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>150</v>
+        <v>391</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>385</v>
+        <v>156</v>
       </c>
       <c r="M53" s="7">
         <v>171</v>
@@ -4402,13 +4420,13 @@
         <v>182134</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>388</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4441,13 @@
         <v>197614</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H54" s="7">
         <v>174</v>
@@ -4438,13 +4456,13 @@
         <v>190859</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>194</v>
+        <v>398</v>
       </c>
       <c r="M54" s="7">
         <v>362</v>
@@ -4453,13 +4471,13 @@
         <v>388472</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>394</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4492,13 @@
         <v>510953</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H55" s="7">
         <v>383</v>
@@ -4489,13 +4507,13 @@
         <v>409993</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M55" s="7">
         <v>862</v>
@@ -4504,13 +4522,13 @@
         <v>920946</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4543,13 @@
         <v>787625</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H56" s="7">
         <v>744</v>
@@ -4540,13 +4558,13 @@
         <v>804468</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M56" s="7">
         <v>1481</v>
@@ -4555,19 +4573,19 @@
         <v>1592093</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="7">
         <v>1207</v>
@@ -4576,13 +4594,13 @@
         <v>1281199</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H57" s="7">
         <v>1372</v>
@@ -4591,13 +4609,13 @@
         <v>1470768</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M57" s="7">
         <v>2579</v>
@@ -4606,19 +4624,19 @@
         <v>2751967</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="7">
         <v>315</v>
@@ -4627,13 +4645,13 @@
         <v>328185</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H58" s="7">
         <v>378</v>
@@ -4642,13 +4660,13 @@
         <v>402977</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="M58" s="7">
         <v>693</v>
@@ -4657,13 +4675,13 @@
         <v>731162</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>233</v>
+        <v>432</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4696,13 @@
         <v>3319174</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H59" s="7">
         <v>3207</v>
@@ -4693,13 +4711,13 @@
         <v>3455626</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M59" s="7">
         <v>6320</v>
@@ -4708,18 +4726,18 @@
         <v>6774800</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75_P_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P75_P_2012-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0CB0AE-F6E1-49EF-A33E-96521FDDCC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC85B2B-6A56-4EB4-9C26-D20E3D99447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2340450-D794-42EA-94FA-0ADF681C39F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6ECE471A-6783-4288-AEC8-1B0F4DBAD312}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="433">
   <si>
     <t>Población según el nivel de estudios de su padre cuando tenían 12 años en 2012 (Tasa respuesta: 97,13%)</t>
   </si>
@@ -74,1228 +74,1219 @@
     <t>5,71%</t>
   </si>
   <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>Estudios universitarios de grado medio</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>Estudios universitarios de grado medio</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
     <t>14,42%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>22,39%</t>
   </si>
   <si>
     <t>38,6%</t>
   </si>
   <si>
-    <t>36,9%</t>
+    <t>36,88%</t>
   </si>
   <si>
     <t>40,31%</t>
@@ -1304,43 +1295,43 @@
     <t>42,56%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>40,62%</t>
   </si>
   <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1755,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9964CF34-8522-432A-826E-C35F3A4A3021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52D7BC-91D1-41A7-8A77-B5E660B99EB7}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,16 +2107,16 @@
         <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>65</v>
@@ -2134,13 +2125,13 @@
         <v>64129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>70</v>
@@ -2149,13 +2140,13 @@
         <v>71170</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="7">
         <v>135</v>
@@ -2164,19 +2155,19 @@
         <v>135299</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
@@ -2185,13 +2176,13 @@
         <v>5599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2200,13 +2191,13 @@
         <v>9719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2215,13 +2206,13 @@
         <v>15319</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2227,13 @@
         <v>439543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>412</v>
@@ -2251,13 +2242,13 @@
         <v>421246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>843</v>
@@ -2266,18 +2257,18 @@
         <v>860789</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2289,13 +2280,13 @@
         <v>26403</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -2304,13 +2295,13 @@
         <v>30338</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>48</v>
@@ -2319,10 +2310,10 @@
         <v>56742</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>88</v>
@@ -2373,10 +2364,10 @@
         <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,10 +2382,10 @@
         <v>67535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>99</v>
@@ -2427,7 +2418,7 @@
         <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2433,13 @@
         <v>158872</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H15" s="7">
         <v>104</v>
@@ -2457,13 +2448,13 @@
         <v>109515</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
@@ -2472,13 +2463,13 @@
         <v>268387</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2484,13 @@
         <v>168154</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>173</v>
@@ -2508,13 +2499,13 @@
         <v>185446</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>339</v>
@@ -2523,19 +2514,19 @@
         <v>353600</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7">
         <v>181</v>
@@ -2544,13 +2535,13 @@
         <v>187091</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H17" s="7">
         <v>170</v>
@@ -2559,13 +2550,13 @@
         <v>181981</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>351</v>
@@ -2574,19 +2565,19 @@
         <v>369072</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7">
         <v>24</v>
@@ -2595,13 +2586,13 @@
         <v>24133</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -2610,13 +2601,13 @@
         <v>20478</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>44</v>
@@ -2625,13 +2616,13 @@
         <v>44611</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2637,13 @@
         <v>667162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7">
         <v>558</v>
@@ -2661,13 +2652,13 @@
         <v>596478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>1207</v>
@@ -2676,18 +2667,18 @@
         <v>1263640</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2699,13 +2690,13 @@
         <v>17983</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2714,13 +2705,13 @@
         <v>15747</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -2729,13 +2720,13 @@
         <v>33731</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2741,13 @@
         <v>12299</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -2765,13 +2756,13 @@
         <v>10941</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -2780,13 +2771,13 @@
         <v>23240</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,10 +2795,10 @@
         <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -2816,13 +2807,13 @@
         <v>49135</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -2831,13 +2822,13 @@
         <v>83102</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2843,13 @@
         <v>105196</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>71</v>
@@ -2867,13 +2858,13 @@
         <v>77770</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>168</v>
@@ -2882,13 +2873,13 @@
         <v>182966</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2894,13 @@
         <v>198935</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H24" s="7">
         <v>167</v>
@@ -2918,13 +2909,13 @@
         <v>172688</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M24" s="7">
         <v>355</v>
@@ -2933,19 +2924,19 @@
         <v>371623</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7">
         <v>249</v>
@@ -2954,13 +2945,13 @@
         <v>252579</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H25" s="7">
         <v>301</v>
@@ -2969,13 +2960,13 @@
         <v>316476</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>550</v>
@@ -2984,19 +2975,19 @@
         <v>569055</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7">
         <v>42</v>
@@ -3005,13 +2996,13 @@
         <v>42726</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -3020,7 +3011,7 @@
         <v>49457</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>197</v>
@@ -3056,13 +3047,13 @@
         <v>663686</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" s="7">
         <v>652</v>
@@ -3071,13 +3062,13 @@
         <v>692213</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M27" s="7">
         <v>1286</v>
@@ -3086,13 +3077,13 @@
         <v>1355899</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,10 +3133,10 @@
         <v>209</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3151,13 @@
         <v>13089</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3175,13 +3166,13 @@
         <v>13319</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -3190,13 +3181,13 @@
         <v>26408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3202,13 @@
         <v>15259</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -3226,13 +3217,13 @@
         <v>18620</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -3241,13 +3232,13 @@
         <v>33878</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3253,13 @@
         <v>64543</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H31" s="7">
         <v>41</v>
@@ -3277,13 +3268,13 @@
         <v>46937</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M31" s="7">
         <v>98</v>
@@ -3292,13 +3283,13 @@
         <v>111479</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3304,13 @@
         <v>157283</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H32" s="7">
         <v>124</v>
@@ -3328,13 +3319,13 @@
         <v>145371</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M32" s="7">
         <v>262</v>
@@ -3343,19 +3334,19 @@
         <v>302653</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="7">
         <v>265</v>
@@ -3364,13 +3355,13 @@
         <v>286330</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H33" s="7">
         <v>257</v>
@@ -3379,13 +3370,13 @@
         <v>287378</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M33" s="7">
         <v>522</v>
@@ -3394,19 +3385,19 @@
         <v>573708</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="7">
         <v>36</v>
@@ -3415,7 +3406,7 @@
         <v>38726</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>254</v>
@@ -3433,10 +3424,10 @@
         <v>256</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M34" s="7">
         <v>99</v>
@@ -3445,7 +3436,7 @@
         <v>106516</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>259</v>
@@ -3466,13 +3457,13 @@
         <v>597546</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" s="7">
         <v>522</v>
@@ -3481,13 +3472,13 @@
         <v>596797</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M35" s="7">
         <v>1055</v>
@@ -3496,13 +3487,13 @@
         <v>1194343</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3567,7 @@
         <v>272</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3624,10 +3615,10 @@
         <v>279</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -3636,13 +3627,13 @@
         <v>10306</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="M38" s="7">
         <v>15</v>
@@ -3651,13 +3642,13 @@
         <v>16300</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3663,13 @@
         <v>35003</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H39" s="7">
         <v>28</v>
@@ -3687,13 +3678,13 @@
         <v>31498</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M39" s="7">
         <v>58</v>
@@ -3702,13 +3693,13 @@
         <v>66501</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3714,13 @@
         <v>71004</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
@@ -3738,13 +3729,13 @@
         <v>74916</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M40" s="7">
         <v>132</v>
@@ -3753,19 +3744,19 @@
         <v>145920</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7">
         <v>212</v>
@@ -3774,13 +3765,13 @@
         <v>229003</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H41" s="7">
         <v>233</v>
@@ -3789,13 +3780,13 @@
         <v>252115</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M41" s="7">
         <v>445</v>
@@ -3804,19 +3795,19 @@
         <v>481118</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7">
         <v>52</v>
@@ -3825,13 +3816,13 @@
         <v>54224</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H42" s="7">
         <v>54</v>
@@ -3840,13 +3831,13 @@
         <v>58760</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M42" s="7">
         <v>106</v>
@@ -3855,13 +3846,13 @@
         <v>112984</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3867,13 @@
         <v>410020</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" s="7">
         <v>400</v>
@@ -3891,13 +3882,13 @@
         <v>439572</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M43" s="7">
         <v>777</v>
@@ -3906,18 +3897,18 @@
         <v>849592</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3929,13 +3920,13 @@
         <v>3047</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -3944,13 +3935,13 @@
         <v>6300</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -3959,13 +3950,13 @@
         <v>9347</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3971,13 @@
         <v>4431</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H45" s="7">
         <v>4</v>
@@ -3995,13 +3986,13 @@
         <v>4282</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M45" s="7">
         <v>7</v>
@@ -4010,13 +4001,13 @@
         <v>8714</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4022,7 @@
         <v>10567</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>341</v>
@@ -4046,10 +4037,10 @@
         <v>6330</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>343</v>
@@ -4085,10 +4076,10 @@
         <v>347</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H47" s="7">
         <v>27</v>
@@ -4115,10 +4106,10 @@
         <v>95</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4124,13 @@
         <v>74631</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H48" s="7">
         <v>94</v>
@@ -4148,13 +4139,13 @@
         <v>102544</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M48" s="7">
         <v>159</v>
@@ -4163,19 +4154,19 @@
         <v>177174</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7">
         <v>235</v>
@@ -4184,13 +4175,13 @@
         <v>262067</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H49" s="7">
         <v>341</v>
@@ -4199,13 +4190,13 @@
         <v>361648</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M49" s="7">
         <v>576</v>
@@ -4214,19 +4205,19 @@
         <v>623715</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7">
         <v>155</v>
@@ -4235,13 +4226,13 @@
         <v>162777</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H50" s="7">
         <v>186</v>
@@ -4250,13 +4241,13 @@
         <v>196773</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M50" s="7">
         <v>341</v>
@@ -4265,13 +4256,13 @@
         <v>359550</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4277,13 @@
         <v>541217</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H51" s="7">
         <v>663</v>
@@ -4301,13 +4292,13 @@
         <v>709320</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M51" s="7">
         <v>1152</v>
@@ -4316,13 +4307,13 @@
         <v>1250537</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4330,13 @@
         <v>107590</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>24</v>
+        <v>379</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>380</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="H52" s="7">
         <v>86</v>
@@ -4357,10 +4348,10 @@
         <v>206</v>
       </c>
       <c r="K52" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M52" s="7">
         <v>172</v>
@@ -4369,13 +4360,13 @@
         <v>208025</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="P52" s="7" t="s">
-        <v>385</v>
-      </c>
       <c r="Q52" s="7" t="s">
-        <v>386</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4381,13 @@
         <v>106009</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>388</v>
+        <v>157</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>389</v>
+        <v>217</v>
       </c>
       <c r="H53" s="7">
         <v>70</v>
@@ -4405,13 +4396,13 @@
         <v>76125</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>156</v>
+        <v>388</v>
       </c>
       <c r="M53" s="7">
         <v>171</v>
@@ -4420,13 +4411,13 @@
         <v>182134</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>262</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4432,13 @@
         <v>197614</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H54" s="7">
         <v>174</v>
@@ -4456,13 +4447,13 @@
         <v>190859</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M54" s="7">
         <v>362</v>
@@ -4471,13 +4462,13 @@
         <v>388472</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4483,13 @@
         <v>510953</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H55" s="7">
         <v>383</v>
@@ -4507,13 +4498,13 @@
         <v>409993</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M55" s="7">
         <v>862</v>
@@ -4522,13 +4513,13 @@
         <v>920946</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4534,13 @@
         <v>787625</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H56" s="7">
         <v>744</v>
@@ -4558,13 +4549,13 @@
         <v>804468</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M56" s="7">
         <v>1481</v>
@@ -4573,19 +4564,19 @@
         <v>1592093</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>417</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" s="7">
         <v>1207</v>
@@ -4594,13 +4585,13 @@
         <v>1281199</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H57" s="7">
         <v>1372</v>
@@ -4609,13 +4600,13 @@
         <v>1470768</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M57" s="7">
         <v>2579</v>
@@ -4624,19 +4615,19 @@
         <v>2751967</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" s="7">
         <v>315</v>
@@ -4645,13 +4636,13 @@
         <v>328185</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H58" s="7">
         <v>378</v>
@@ -4660,13 +4651,13 @@
         <v>402977</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="M58" s="7">
         <v>693</v>
@@ -4675,13 +4666,13 @@
         <v>731162</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4687,13 @@
         <v>3319174</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H59" s="7">
         <v>3207</v>
@@ -4711,13 +4702,13 @@
         <v>3455626</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M59" s="7">
         <v>6320</v>
@@ -4726,18 +4717,18 @@
         <v>6774800</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
